--- a/biology/Zoologie/Cyclotosaurus/Cyclotosaurus.xlsx
+++ b/biology/Zoologie/Cyclotosaurus/Cyclotosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclotosaurus est un genre fossile regroupant des espèces de l'ordre des temnospondyles et qui ont vécu à la fin du Trias.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces espèces se rencontraient dans ce qui est aujourd'hui le Groenland, l'Allemagne, la Pologne, l'Angleterre, la Russie, l'Afrique du Sud, les États-Unis et la Thaïlande[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces espèces se rencontraient dans ce qui est aujourd'hui le Groenland, l'Allemagne, la Pologne, l'Angleterre, la Russie, l'Afrique du Sud, les États-Unis et la Thaïlande.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les membres de ce genre étaient de grands prédateurs (environ trois mètres), caractérisés par une grosse tête de forme vaguement triangulaire, équipée de dents pointues. Leur crâne et leur corps étaient assez aplatis par suite de leur vie aquatique.
 </t>
@@ -573,7 +589,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>† Cyclotosaurus ebrachensis Kuhn, 1932
 † Cyclotosaurus hemprichi Kuhn, 1942
